--- a/data/trans_bre/P1432-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1432-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.832392824252765</v>
+        <v>-1.73201745210245</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8758973232160081</v>
+        <v>0.9267636912869985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3095158367380402</v>
+        <v>-0.2516427928299035</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.8552926958555133</v>
+        <v>-0.8502928487790213</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6232435259812763</v>
+        <v>0.4607641116433465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3151105719578473</v>
+        <v>-0.3559210510659832</v>
       </c>
     </row>
     <row r="6">
@@ -664,20 +664,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3780001015376702</v>
+        <v>0.6064084291716588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.476583353627614</v>
+        <v>3.359942318476182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.192495565113597</v>
+        <v>2.302981280116761</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.8101356437368329</v>
+        <v>1.312457567721536</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>5.820829943742003</v>
+        <v>5.995501587737473</v>
       </c>
     </row>
     <row r="7">
@@ -718,22 +718,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3751322544840276</v>
+        <v>-0.3203158270581343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1220902941985497</v>
+        <v>-0.03261384895990935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.2172385868441439</v>
+        <v>-0.1559932868413789</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3658019382115707</v>
+        <v>-0.3058478349529862</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.305744567401469</v>
+        <v>-0.3073234020785284</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3563101497310229</v>
+        <v>-0.4069164760860743</v>
       </c>
     </row>
     <row r="9">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.92318418134419</v>
+        <v>1.925711175944465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.916037115879239</v>
+        <v>1.820467274494835</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.443064474392606</v>
+        <v>1.474484755315229</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.021376352094165</v>
+        <v>2.909892300350159</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.36496826276296</v>
+        <v>5.596697173221591</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.78998463490876</v>
+        <v>4.800973860117542</v>
       </c>
     </row>
     <row r="10">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6093827009544392</v>
+        <v>-0.635374343309773</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3856366485866524</v>
+        <v>-0.3906653880359054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1034112868446874</v>
+        <v>0.164988933262681</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4728787798052554</v>
+        <v>-0.4700348943581742</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.413452852366414</v>
+        <v>-0.4050411843391936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1717529933099417</v>
+        <v>-0.04378424436543411</v>
       </c>
     </row>
     <row r="12">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.749617475921625</v>
+        <v>1.753226954037221</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.920327552740548</v>
+        <v>1.836293555045285</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.399661414514547</v>
+        <v>2.370208912524788</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.189957909905377</v>
+        <v>3.281978377302197</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.670662225287587</v>
+        <v>4.726346049565955</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>12.48255032485295</v>
+        <v>14.06646042234124</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2234861215087321</v>
+        <v>-0.1613183677406672</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5034561906354591</v>
+        <v>-0.4027192694742927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.420363293587929</v>
+        <v>0.3988821077347646</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2626638675256908</v>
+        <v>-0.1743551382847925</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4316505933392688</v>
+        <v>-0.3975727744258031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1926204799463645</v>
+        <v>0.3714770408072921</v>
       </c>
     </row>
     <row r="15">
@@ -908,22 +908,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.751970515770976</v>
+        <v>1.806257670514636</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.520750818274677</v>
+        <v>1.522274365977808</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.281241852501043</v>
+        <v>2.238434109286838</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.741222355838101</v>
+        <v>3.269445627461006</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.52601290816194</v>
+        <v>3.434035587611076</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20.30409954450143</v>
+        <v>23.67856663077726</v>
       </c>
     </row>
     <row r="16">
@@ -964,22 +964,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1255772472221171</v>
+        <v>-0.2157742994308977</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4644574677156977</v>
+        <v>0.4518312428049212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4754968360934898</v>
+        <v>0.48877150878826</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.09260272553282041</v>
+        <v>-0.1582748550470676</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5011786781532336</v>
+        <v>0.4197811549058803</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6205112419423807</v>
+        <v>0.6430329846586753</v>
       </c>
     </row>
     <row r="18">
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.035094881563533</v>
+        <v>0.9626595356493307</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.500444454079383</v>
+        <v>1.567662227409584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.456506839290996</v>
+        <v>1.472357621256043</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.212092442221403</v>
+        <v>1.068432436572221</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.223063914969209</v>
+        <v>3.429711141219751</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.930625754321626</v>
+        <v>3.99438893674884</v>
       </c>
     </row>
     <row r="19">
